--- a/Environmental/files/anta_water_quality_flow_2018_2019.xlsx
+++ b/Environmental/files/anta_water_quality_flow_2018_2019.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\entzioni\Desktop\github empty excel files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\katvalta\Desktop\Antalya\1. Sampling points\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5793CB49-76E8-46B4-869E-027226EDC3FE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81829049-C8DE-4C80-BAA8-A8756E75C8BE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13290" xr2:uid="{494486AF-8173-401F-9694-7BA8F8BDAD83}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{494486AF-8173-401F-9694-7BA8F8BDAD83}"/>
   </bookViews>
   <sheets>
     <sheet name="ENV_WATER_QUALTY_2018-2019 (EN)" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="26">
   <si>
     <t>DATE</t>
   </si>
@@ -32,6 +32,21 @@
   </si>
   <si>
     <t>pH</t>
+  </si>
+  <si>
+    <t>&lt;5,00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           &lt;5,00</t>
+  </si>
+  <si>
+    <t>&lt;1,32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            &lt;5,00</t>
+  </si>
+  <si>
+    <t>&lt;0,025</t>
   </si>
   <si>
     <t>Lat</t>
@@ -54,6 +69,24 @@
     <t xml:space="preserve">
 Total Coliform
 (CFU/100mL)</t>
+  </si>
+  <si>
+    <t>Sampling Point 1 - Kırkgöz</t>
+  </si>
+  <si>
+    <t>Sampling Point 2 - Kepezüstü</t>
+  </si>
+  <si>
+    <t>Sampling Point 3 - Şelaleüstü</t>
+  </si>
+  <si>
+    <t>Sampling Point 4 - Şelale Havuzu</t>
+  </si>
+  <si>
+    <t>Sampling Point 5 - Cırnık Köprüsü</t>
+  </si>
+  <si>
+    <t>Sampling Point 6 - ddenin Denize Döküldüğü Yer</t>
   </si>
   <si>
     <t>BOD (mg/L)
@@ -84,7 +117,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -691,11 +724,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{482EF796-E9CC-4844-BC21-99E2B6AFFDB5}">
   <dimension ref="A1:O74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:O73"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="15.08984375" style="1" customWidth="1"/>
     <col min="2" max="2" width="41.26953125" style="1" bestFit="1" customWidth="1"/>
@@ -713,7 +746,7 @@
     <col min="15" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="9" customFormat="1" ht="58.5" thickBot="1">
+    <row r="1" spans="1:15" s="9" customFormat="1" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -721,135 +754,263 @@
         <v>1</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="J1" s="7" t="s">
         <v>2</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="L1" s="7" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="M1" s="7" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="N1" s="7" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="O1" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A2" s="13">
+        <v>43199</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
-      <c r="A2" s="13"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="2"/>
+      <c r="C2" s="2">
+        <v>37.086100000000002</v>
+      </c>
+      <c r="D2" s="2">
+        <v>30.584240000000001</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="2">
+        <v>7.58</v>
+      </c>
+      <c r="G2" s="2">
+        <v>800</v>
+      </c>
+      <c r="H2" s="2">
+        <v>150</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" s="2">
+        <v>7.03</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1100</v>
+      </c>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" s="14"/>
     </row>
-    <row r="3" spans="1:15">
-      <c r="A3" s="15"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="4"/>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A3" s="15">
+        <v>43199</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="4">
+        <v>36.967730000000003</v>
+      </c>
+      <c r="D3" s="4">
+        <v>30.621510000000001</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="4">
+        <v>7.28</v>
+      </c>
+      <c r="G3" s="4">
+        <v>140</v>
+      </c>
+      <c r="H3" s="4">
+        <v>120</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="4">
+        <v>7.3</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="L3" s="4">
+        <v>900</v>
+      </c>
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
       <c r="O3" s="16"/>
     </row>
-    <row r="4" spans="1:15">
-      <c r="A4" s="15"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="4"/>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A4" s="15">
+        <v>43199</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="4">
+        <v>36.96434</v>
+      </c>
+      <c r="D4" s="4">
+        <v>30.727049999999998</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="4">
+        <v>7.51</v>
+      </c>
+      <c r="G4" s="4">
+        <v>100</v>
+      </c>
+      <c r="H4" s="4">
+        <v>90</v>
+      </c>
+      <c r="I4" s="4">
+        <v>6.2</v>
+      </c>
+      <c r="J4" s="4">
+        <v>7.46</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="L4" s="4">
+        <v>700</v>
+      </c>
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
       <c r="O4" s="16"/>
     </row>
-    <row r="5" spans="1:15">
-      <c r="A5" s="15"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="4"/>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A5" s="15">
+        <v>43199</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="4">
+        <v>36.96434</v>
+      </c>
+      <c r="D5" s="4">
+        <v>30.727049999999998</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="4">
+        <v>7.4</v>
+      </c>
+      <c r="G5" s="4">
+        <v>80</v>
+      </c>
+      <c r="H5" s="4">
+        <v>90</v>
+      </c>
+      <c r="I5" s="4">
+        <v>6.6</v>
+      </c>
+      <c r="J5" s="4">
+        <v>7.53</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="L5" s="4">
+        <v>650</v>
+      </c>
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
       <c r="O5" s="16"/>
     </row>
-    <row r="6" spans="1:15">
-      <c r="A6" s="15"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="4"/>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A6" s="15">
+        <v>43199</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="4">
+        <v>36.904789999999998</v>
+      </c>
+      <c r="D6" s="4">
+        <v>30.766439999999999</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="4">
+        <v>7.02</v>
+      </c>
+      <c r="G6" s="4">
+        <v>50</v>
+      </c>
+      <c r="H6" s="4">
+        <v>70</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="J6" s="4">
+        <v>7.56</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="L6" s="4">
+        <v>600</v>
+      </c>
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
       <c r="O6" s="16"/>
     </row>
-    <row r="7" spans="1:15">
-      <c r="A7" s="15"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A7" s="15">
+        <v>43199</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="4">
+        <v>36.851439999999997</v>
+      </c>
+      <c r="D7" s="4">
+        <v>30.783259999999999</v>
+      </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
@@ -862,96 +1023,224 @@
       <c r="N7" s="4"/>
       <c r="O7" s="16"/>
     </row>
-    <row r="8" spans="1:15">
-      <c r="A8" s="15"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A8" s="15">
+        <v>43229</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="2">
+        <v>37.086100000000002</v>
+      </c>
+      <c r="D8" s="2">
+        <v>30.584240000000001</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="4">
+        <v>5.33</v>
+      </c>
+      <c r="G8" s="4">
+        <v>2000</v>
+      </c>
+      <c r="H8" s="4">
+        <v>2600</v>
+      </c>
+      <c r="I8" s="4">
+        <v>8.9</v>
+      </c>
+      <c r="J8" s="4">
+        <v>6.68</v>
+      </c>
+      <c r="K8" s="4">
+        <v>2.1760000000000002</v>
+      </c>
+      <c r="L8" s="4">
+        <v>8000</v>
+      </c>
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
       <c r="O8" s="16"/>
     </row>
-    <row r="9" spans="1:15">
-      <c r="A9" s="15"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A9" s="15">
+        <v>43229</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="4">
+        <v>36.967730000000003</v>
+      </c>
+      <c r="D9" s="4">
+        <v>30.621510000000001</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" s="4">
+        <v>4.9400000000000004</v>
+      </c>
+      <c r="G9" s="4">
+        <v>1000</v>
+      </c>
+      <c r="H9" s="4">
+        <v>2400</v>
+      </c>
+      <c r="I9" s="4">
+        <v>5.8</v>
+      </c>
+      <c r="J9" s="4">
+        <v>6.78</v>
+      </c>
+      <c r="K9" s="4">
+        <v>1.583</v>
+      </c>
+      <c r="L9" s="4">
+        <v>7500</v>
+      </c>
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
       <c r="O9" s="16"/>
     </row>
-    <row r="10" spans="1:15">
-      <c r="A10" s="15"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A10" s="15">
+        <v>43229</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="4">
+        <v>36.96434</v>
+      </c>
+      <c r="D10" s="4">
+        <v>30.727049999999998</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" s="4">
+        <v>4.78</v>
+      </c>
+      <c r="G10" s="4">
+        <v>2100</v>
+      </c>
+      <c r="H10" s="4">
+        <v>2300</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="J10" s="4">
+        <v>6.85</v>
+      </c>
+      <c r="K10" s="4">
+        <v>1.657</v>
+      </c>
+      <c r="L10" s="4">
+        <v>8100</v>
+      </c>
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
       <c r="O10" s="16"/>
     </row>
-    <row r="11" spans="1:15">
-      <c r="A11" s="15"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A11" s="15">
+        <v>43229</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="4">
+        <v>36.96434</v>
+      </c>
+      <c r="D11" s="4">
+        <v>30.727049999999998</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11" s="4">
+        <v>4.32</v>
+      </c>
+      <c r="G11" s="4">
+        <v>1000</v>
+      </c>
+      <c r="H11" s="4">
+        <v>2500</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="J11" s="4">
+        <v>6.87</v>
+      </c>
+      <c r="K11" s="4">
+        <v>1.75</v>
+      </c>
+      <c r="L11" s="4">
+        <v>6000</v>
+      </c>
       <c r="M11" s="4"/>
       <c r="N11" s="4"/>
       <c r="O11" s="16"/>
     </row>
-    <row r="12" spans="1:15">
-      <c r="A12" s="15"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A12" s="15">
+        <v>43229</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="4">
+        <v>36.904789999999998</v>
+      </c>
+      <c r="D12" s="4">
+        <v>30.766439999999999</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F12" s="4">
+        <v>4.28</v>
+      </c>
+      <c r="G12" s="4">
+        <v>900</v>
+      </c>
+      <c r="H12" s="4">
+        <v>2800</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="J12" s="4">
+        <v>6.79</v>
+      </c>
+      <c r="K12" s="4">
+        <v>1.72</v>
+      </c>
+      <c r="L12" s="4">
+        <v>6300</v>
+      </c>
       <c r="M12" s="4"/>
       <c r="N12" s="4"/>
       <c r="O12" s="16"/>
     </row>
-    <row r="13" spans="1:15">
-      <c r="A13" s="15"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A13" s="15">
+        <v>43229</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="4">
+        <v>36.851439999999997</v>
+      </c>
+      <c r="D13" s="4">
+        <v>30.783259999999999</v>
+      </c>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
@@ -964,96 +1253,234 @@
       <c r="N13" s="4"/>
       <c r="O13" s="16"/>
     </row>
-    <row r="14" spans="1:15">
-      <c r="A14" s="15"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A14" s="15">
+        <v>43262</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="2">
+        <v>37.086100000000002</v>
+      </c>
+      <c r="D14" s="2">
+        <v>30.584240000000001</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="4">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="G14" s="4">
+        <v>80</v>
+      </c>
+      <c r="H14" s="4">
+        <v>1500</v>
+      </c>
+      <c r="I14" s="4">
+        <v>8.9</v>
+      </c>
+      <c r="J14" s="4">
+        <v>7.15</v>
+      </c>
+      <c r="K14" s="4">
+        <v>4.1900000000000004</v>
+      </c>
+      <c r="L14" s="4">
+        <v>20000</v>
+      </c>
+      <c r="M14" s="4">
+        <v>9.8000000000000004E-2</v>
+      </c>
       <c r="N14" s="4"/>
       <c r="O14" s="16"/>
     </row>
-    <row r="15" spans="1:15">
-      <c r="A15" s="15"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A15" s="15">
+        <v>43262</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="4">
+        <v>36.967730000000003</v>
+      </c>
+      <c r="D15" s="4">
+        <v>30.621510000000001</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="G15" s="4">
+        <v>200</v>
+      </c>
+      <c r="H15" s="4">
+        <v>1800</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="J15" s="4">
+        <v>7.04</v>
+      </c>
+      <c r="K15" s="4">
+        <v>2.4</v>
+      </c>
+      <c r="L15" s="4">
+        <v>30000</v>
+      </c>
+      <c r="M15" s="4">
+        <v>9.7000000000000003E-2</v>
+      </c>
       <c r="N15" s="4"/>
       <c r="O15" s="16"/>
     </row>
-    <row r="16" spans="1:15">
-      <c r="A16" s="15"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A16" s="15">
+        <v>43262</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="4">
+        <v>36.96434</v>
+      </c>
+      <c r="D16" s="4">
+        <v>30.727049999999998</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F16" s="4">
+        <v>3.64</v>
+      </c>
+      <c r="G16" s="4">
+        <v>900</v>
+      </c>
+      <c r="H16" s="5">
+        <v>900</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="J16" s="4">
+        <v>7.46</v>
+      </c>
+      <c r="K16" s="4">
+        <v>2.21</v>
+      </c>
+      <c r="L16" s="4">
+        <v>20000</v>
+      </c>
+      <c r="M16" s="4">
+        <v>8.6999999999999994E-2</v>
+      </c>
       <c r="N16" s="4"/>
       <c r="O16" s="16"/>
     </row>
-    <row r="17" spans="1:15">
-      <c r="A17" s="15"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A17" s="15">
+        <v>43262</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="4">
+        <v>36.96434</v>
+      </c>
+      <c r="D17" s="4">
+        <v>30.727049999999998</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F17" s="4">
+        <v>3.3</v>
+      </c>
+      <c r="G17" s="4">
+        <v>1000</v>
+      </c>
+      <c r="H17" s="4">
+        <v>3000</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="J17" s="4">
+        <v>6.79</v>
+      </c>
+      <c r="K17" s="4">
+        <v>2.23</v>
+      </c>
+      <c r="L17" s="4">
+        <v>20000</v>
+      </c>
+      <c r="M17" s="4">
+        <v>0.125</v>
+      </c>
       <c r="N17" s="4"/>
       <c r="O17" s="16"/>
     </row>
-    <row r="18" spans="1:15">
-      <c r="A18" s="15"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A18" s="15">
+        <v>43262</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="4">
+        <v>36.904789999999998</v>
+      </c>
+      <c r="D18" s="4">
+        <v>30.766439999999999</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F18" s="4">
+        <v>2.64</v>
+      </c>
+      <c r="G18" s="4">
+        <v>150</v>
+      </c>
+      <c r="H18" s="4">
+        <v>2000</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="J18" s="4">
+        <v>6.52</v>
+      </c>
+      <c r="K18" s="4">
+        <v>2.62</v>
+      </c>
+      <c r="L18" s="4">
+        <v>3600</v>
+      </c>
+      <c r="M18" s="4">
+        <v>0.11899999999999999</v>
+      </c>
       <c r="N18" s="4"/>
       <c r="O18" s="16"/>
     </row>
-    <row r="19" spans="1:15">
-      <c r="A19" s="15"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A19" s="15">
+        <v>43262</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="4">
+        <v>36.851439999999997</v>
+      </c>
+      <c r="D19" s="4">
+        <v>30.783259999999999</v>
+      </c>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
@@ -1066,11 +1493,19 @@
       <c r="N19" s="4"/>
       <c r="O19" s="16"/>
     </row>
-    <row r="20" spans="1:15">
-      <c r="A20" s="17"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A20" s="17">
+        <v>43269</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="2">
+        <v>37.086100000000002</v>
+      </c>
+      <c r="D20" s="2">
+        <v>30.584240000000001</v>
+      </c>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
@@ -1080,14 +1515,24 @@
       <c r="K20" s="4"/>
       <c r="L20" s="4"/>
       <c r="M20" s="4"/>
-      <c r="N20" s="12"/>
+      <c r="N20" s="12">
+        <v>6.9610000000000003</v>
+      </c>
       <c r="O20" s="16"/>
     </row>
-    <row r="21" spans="1:15">
-      <c r="A21" s="17"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A21" s="17">
+        <v>43269</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="4">
+        <v>36.967730000000003</v>
+      </c>
+      <c r="D21" s="4">
+        <v>30.621510000000001</v>
+      </c>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
@@ -1097,14 +1542,24 @@
       <c r="K21" s="4"/>
       <c r="L21" s="4"/>
       <c r="M21" s="4"/>
-      <c r="N21" s="12"/>
+      <c r="N21" s="12">
+        <v>6.5940000000000003</v>
+      </c>
       <c r="O21" s="16"/>
     </row>
-    <row r="22" spans="1:15">
-      <c r="A22" s="17"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A22" s="17">
+        <v>43269</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="4">
+        <v>36.96434</v>
+      </c>
+      <c r="D22" s="4">
+        <v>30.727049999999998</v>
+      </c>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
@@ -1114,14 +1569,24 @@
       <c r="K22" s="4"/>
       <c r="L22" s="4"/>
       <c r="M22" s="4"/>
-      <c r="N22" s="12"/>
+      <c r="N22" s="12">
+        <v>2.4889999999999999</v>
+      </c>
       <c r="O22" s="16"/>
     </row>
-    <row r="23" spans="1:15">
-      <c r="A23" s="17"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A23" s="17">
+        <v>43269</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="4">
+        <v>36.96434</v>
+      </c>
+      <c r="D23" s="4">
+        <v>30.727049999999998</v>
+      </c>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
@@ -1131,14 +1596,24 @@
       <c r="K23" s="4"/>
       <c r="L23" s="4"/>
       <c r="M23" s="4"/>
-      <c r="N23" s="12"/>
+      <c r="N23" s="12">
+        <v>1.0389999999999999</v>
+      </c>
       <c r="O23" s="16"/>
     </row>
-    <row r="24" spans="1:15">
-      <c r="A24" s="17"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A24" s="17">
+        <v>43269</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24" s="4">
+        <v>36.904789999999998</v>
+      </c>
+      <c r="D24" s="4">
+        <v>30.766439999999999</v>
+      </c>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
@@ -1148,14 +1623,24 @@
       <c r="K24" s="4"/>
       <c r="L24" s="4"/>
       <c r="M24" s="4"/>
-      <c r="N24" s="12"/>
+      <c r="N24" s="12">
+        <v>6.1420000000000003</v>
+      </c>
       <c r="O24" s="16"/>
     </row>
-    <row r="25" spans="1:15">
-      <c r="A25" s="17"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A25" s="17">
+        <v>43269</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" s="4">
+        <v>36.851439999999997</v>
+      </c>
+      <c r="D25" s="4">
+        <v>30.783259999999999</v>
+      </c>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
@@ -1168,11 +1653,19 @@
       <c r="N25" s="4"/>
       <c r="O25" s="16"/>
     </row>
-    <row r="26" spans="1:15">
-      <c r="A26" s="17"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A26" s="17">
+        <v>43280</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" s="2">
+        <v>37.086100000000002</v>
+      </c>
+      <c r="D26" s="2">
+        <v>30.584240000000001</v>
+      </c>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
@@ -1182,14 +1675,24 @@
       <c r="K26" s="4"/>
       <c r="L26" s="4"/>
       <c r="M26" s="4"/>
-      <c r="N26" s="12"/>
+      <c r="N26" s="12">
+        <v>6.7949999999999999</v>
+      </c>
       <c r="O26" s="16"/>
     </row>
-    <row r="27" spans="1:15">
-      <c r="A27" s="17"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A27" s="17">
+        <v>43280</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27" s="4">
+        <v>36.967730000000003</v>
+      </c>
+      <c r="D27" s="4">
+        <v>30.621510000000001</v>
+      </c>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
@@ -1199,14 +1702,24 @@
       <c r="K27" s="4"/>
       <c r="L27" s="4"/>
       <c r="M27" s="4"/>
-      <c r="N27" s="12"/>
+      <c r="N27" s="12">
+        <v>6.7930000000000001</v>
+      </c>
       <c r="O27" s="16"/>
     </row>
-    <row r="28" spans="1:15">
-      <c r="A28" s="17"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A28" s="17">
+        <v>43280</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" s="4">
+        <v>36.96434</v>
+      </c>
+      <c r="D28" s="4">
+        <v>30.727049999999998</v>
+      </c>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
@@ -1216,14 +1729,24 @@
       <c r="K28" s="4"/>
       <c r="L28" s="4"/>
       <c r="M28" s="4"/>
-      <c r="N28" s="12"/>
+      <c r="N28" s="12">
+        <v>2.4580000000000002</v>
+      </c>
       <c r="O28" s="16"/>
     </row>
-    <row r="29" spans="1:15">
-      <c r="A29" s="17"/>
-      <c r="B29" s="10"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A29" s="17">
+        <v>43280</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29" s="4">
+        <v>36.96434</v>
+      </c>
+      <c r="D29" s="4">
+        <v>30.727049999999998</v>
+      </c>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
@@ -1233,14 +1756,24 @@
       <c r="K29" s="4"/>
       <c r="L29" s="4"/>
       <c r="M29" s="4"/>
-      <c r="N29" s="12"/>
+      <c r="N29" s="12">
+        <v>1.5309999999999999</v>
+      </c>
       <c r="O29" s="16"/>
     </row>
-    <row r="30" spans="1:15">
-      <c r="A30" s="17"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A30" s="17">
+        <v>43280</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C30" s="4">
+        <v>36.904789999999998</v>
+      </c>
+      <c r="D30" s="4">
+        <v>30.766439999999999</v>
+      </c>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
@@ -1250,14 +1783,24 @@
       <c r="K30" s="4"/>
       <c r="L30" s="4"/>
       <c r="M30" s="4"/>
-      <c r="N30" s="12"/>
+      <c r="N30" s="12">
+        <v>4.8150000000000004</v>
+      </c>
       <c r="O30" s="16"/>
     </row>
-    <row r="31" spans="1:15">
-      <c r="A31" s="17"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A31" s="17">
+        <v>43280</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31" s="4">
+        <v>36.851439999999997</v>
+      </c>
+      <c r="D31" s="4">
+        <v>30.783259999999999</v>
+      </c>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
@@ -1270,96 +1813,234 @@
       <c r="N31" s="4"/>
       <c r="O31" s="16"/>
     </row>
-    <row r="32" spans="1:15">
-      <c r="A32" s="15"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="5"/>
-      <c r="J32" s="4"/>
-      <c r="K32" s="5"/>
-      <c r="L32" s="4"/>
-      <c r="M32" s="5"/>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A32" s="15">
+        <v>43292</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32" s="2">
+        <v>37.086100000000002</v>
+      </c>
+      <c r="D32" s="2">
+        <v>30.584240000000001</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F32" s="4">
+        <v>5.45</v>
+      </c>
+      <c r="G32" s="4">
+        <v>300</v>
+      </c>
+      <c r="H32" s="4">
+        <v>200</v>
+      </c>
+      <c r="I32" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="J32" s="4">
+        <v>6.73</v>
+      </c>
+      <c r="K32" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="L32" s="4">
+        <v>10000</v>
+      </c>
+      <c r="M32" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="N32" s="4"/>
       <c r="O32" s="16"/>
     </row>
-    <row r="33" spans="1:15">
-      <c r="A33" s="15"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
-      <c r="J33" s="4"/>
-      <c r="K33" s="5"/>
-      <c r="L33" s="4"/>
-      <c r="M33" s="5"/>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A33" s="15">
+        <v>43292</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C33" s="4">
+        <v>36.967730000000003</v>
+      </c>
+      <c r="D33" s="4">
+        <v>30.621510000000001</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F33" s="4">
+        <v>4.83</v>
+      </c>
+      <c r="G33" s="4">
+        <v>200</v>
+      </c>
+      <c r="H33" s="4">
+        <v>150</v>
+      </c>
+      <c r="I33" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J33" s="4">
+        <v>6.77</v>
+      </c>
+      <c r="K33" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="L33" s="4">
+        <v>12000</v>
+      </c>
+      <c r="M33" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="N33" s="4"/>
       <c r="O33" s="16"/>
     </row>
-    <row r="34" spans="1:15">
-      <c r="A34" s="15"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
-      <c r="I34" s="4"/>
-      <c r="J34" s="4"/>
-      <c r="K34" s="5"/>
-      <c r="L34" s="4"/>
-      <c r="M34" s="5"/>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A34" s="15">
+        <v>43292</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C34" s="4">
+        <v>36.96434</v>
+      </c>
+      <c r="D34" s="4">
+        <v>30.727049999999998</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F34" s="4">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="G34" s="4">
+        <v>100</v>
+      </c>
+      <c r="H34" s="4">
+        <v>50</v>
+      </c>
+      <c r="I34" s="4">
+        <v>6.2</v>
+      </c>
+      <c r="J34" s="4">
+        <v>6.64</v>
+      </c>
+      <c r="K34" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="L34" s="4">
+        <v>16000</v>
+      </c>
+      <c r="M34" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="N34" s="4"/>
       <c r="O34" s="16"/>
     </row>
-    <row r="35" spans="1:15">
-      <c r="A35" s="15"/>
-      <c r="B35" s="10"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
-      <c r="I35" s="4"/>
-      <c r="J35" s="4"/>
-      <c r="K35" s="5"/>
-      <c r="L35" s="4"/>
-      <c r="M35" s="5"/>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A35" s="15">
+        <v>43292</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C35" s="4">
+        <v>36.96434</v>
+      </c>
+      <c r="D35" s="4">
+        <v>30.727049999999998</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F35" s="4">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="G35" s="4">
+        <v>250</v>
+      </c>
+      <c r="H35" s="4">
+        <v>160</v>
+      </c>
+      <c r="I35" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J35" s="4">
+        <v>6.7</v>
+      </c>
+      <c r="K35" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="L35" s="4">
+        <v>10000</v>
+      </c>
+      <c r="M35" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="N35" s="4"/>
       <c r="O35" s="16"/>
     </row>
-    <row r="36" spans="1:15">
-      <c r="A36" s="15"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
-      <c r="I36" s="4"/>
-      <c r="J36" s="4"/>
-      <c r="K36" s="5"/>
-      <c r="L36" s="4"/>
-      <c r="M36" s="4"/>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A36" s="15">
+        <v>43292</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C36" s="4">
+        <v>36.904789999999998</v>
+      </c>
+      <c r="D36" s="4">
+        <v>30.766439999999999</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F36" s="4">
+        <v>4.3600000000000003</v>
+      </c>
+      <c r="G36" s="4">
+        <v>150</v>
+      </c>
+      <c r="H36" s="4">
+        <v>30</v>
+      </c>
+      <c r="I36" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J36" s="4">
+        <v>6.76</v>
+      </c>
+      <c r="K36" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="L36" s="4">
+        <v>1000</v>
+      </c>
+      <c r="M36" s="4">
+        <v>0.09</v>
+      </c>
       <c r="N36" s="4"/>
       <c r="O36" s="16"/>
     </row>
-    <row r="37" spans="1:15">
-      <c r="A37" s="15"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A37" s="15">
+        <v>43292</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C37" s="4">
+        <v>36.851439999999997</v>
+      </c>
+      <c r="D37" s="4">
+        <v>30.783259999999999</v>
+      </c>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
@@ -1372,11 +2053,19 @@
       <c r="N37" s="4"/>
       <c r="O37" s="16"/>
     </row>
-    <row r="38" spans="1:15">
-      <c r="A38" s="17"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A38" s="17">
+        <v>43297</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C38" s="2">
+        <v>37.086100000000002</v>
+      </c>
+      <c r="D38" s="2">
+        <v>30.584240000000001</v>
+      </c>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
@@ -1386,14 +2075,24 @@
       <c r="K38" s="4"/>
       <c r="L38" s="4"/>
       <c r="M38" s="4"/>
-      <c r="N38" s="12"/>
+      <c r="N38" s="12">
+        <v>7.1349999999999998</v>
+      </c>
       <c r="O38" s="16"/>
     </row>
-    <row r="39" spans="1:15">
-      <c r="A39" s="17"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A39" s="17">
+        <v>43297</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C39" s="4">
+        <v>36.967730000000003</v>
+      </c>
+      <c r="D39" s="4">
+        <v>30.621510000000001</v>
+      </c>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
@@ -1403,14 +2102,24 @@
       <c r="K39" s="4"/>
       <c r="L39" s="4"/>
       <c r="M39" s="4"/>
-      <c r="N39" s="12"/>
+      <c r="N39" s="12">
+        <v>6.5510000000000002</v>
+      </c>
       <c r="O39" s="16"/>
     </row>
-    <row r="40" spans="1:15">
-      <c r="A40" s="22"/>
-      <c r="B40" s="23"/>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A40" s="22">
+        <v>43297</v>
+      </c>
+      <c r="B40" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C40" s="4">
+        <v>36.96434</v>
+      </c>
+      <c r="D40" s="4">
+        <v>30.727049999999998</v>
+      </c>
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
       <c r="G40" s="4"/>
@@ -1420,14 +2129,24 @@
       <c r="K40" s="4"/>
       <c r="L40" s="4"/>
       <c r="M40" s="4"/>
-      <c r="N40" s="12"/>
+      <c r="N40" s="12">
+        <v>2.8140000000000001</v>
+      </c>
       <c r="O40" s="16"/>
     </row>
-    <row r="41" spans="1:15">
-      <c r="A41" s="22"/>
-      <c r="B41" s="24"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A41" s="22">
+        <v>43297</v>
+      </c>
+      <c r="B41" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C41" s="4">
+        <v>36.96434</v>
+      </c>
+      <c r="D41" s="4">
+        <v>30.727049999999998</v>
+      </c>
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
       <c r="G41" s="4"/>
@@ -1437,14 +2156,24 @@
       <c r="K41" s="4"/>
       <c r="L41" s="4"/>
       <c r="M41" s="4"/>
-      <c r="N41" s="12"/>
+      <c r="N41" s="12">
+        <v>1.24</v>
+      </c>
       <c r="O41" s="16"/>
     </row>
-    <row r="42" spans="1:15">
-      <c r="A42" s="22"/>
-      <c r="B42" s="23"/>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A42" s="22">
+        <v>43297</v>
+      </c>
+      <c r="B42" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="C42" s="4">
+        <v>36.904789999999998</v>
+      </c>
+      <c r="D42" s="4">
+        <v>30.766439999999999</v>
+      </c>
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
       <c r="G42" s="4"/>
@@ -1454,14 +2183,24 @@
       <c r="K42" s="4"/>
       <c r="L42" s="4"/>
       <c r="M42" s="4"/>
-      <c r="N42" s="12"/>
+      <c r="N42" s="12">
+        <v>4.3689999999999998</v>
+      </c>
       <c r="O42" s="16"/>
     </row>
-    <row r="43" spans="1:15">
-      <c r="A43" s="22"/>
-      <c r="B43" s="23"/>
-      <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A43" s="22">
+        <v>43297</v>
+      </c>
+      <c r="B43" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C43" s="4">
+        <v>36.851439999999997</v>
+      </c>
+      <c r="D43" s="4">
+        <v>30.783259999999999</v>
+      </c>
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
       <c r="G43" s="4"/>
@@ -1474,11 +2213,19 @@
       <c r="N43" s="4"/>
       <c r="O43" s="16"/>
     </row>
-    <row r="44" spans="1:15">
-      <c r="A44" s="22"/>
-      <c r="B44" s="23"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A44" s="22">
+        <v>43307</v>
+      </c>
+      <c r="B44" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C44" s="2">
+        <v>37.086100000000002</v>
+      </c>
+      <c r="D44" s="2">
+        <v>30.584240000000001</v>
+      </c>
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
       <c r="G44" s="4"/>
@@ -1488,14 +2235,24 @@
       <c r="K44" s="4"/>
       <c r="L44" s="4"/>
       <c r="M44" s="4"/>
-      <c r="N44" s="12"/>
+      <c r="N44" s="12">
+        <v>13.218999999999999</v>
+      </c>
       <c r="O44" s="16"/>
     </row>
-    <row r="45" spans="1:15">
-      <c r="A45" s="22"/>
-      <c r="B45" s="23"/>
-      <c r="C45" s="4"/>
-      <c r="D45" s="4"/>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A45" s="22">
+        <v>43307</v>
+      </c>
+      <c r="B45" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="C45" s="4">
+        <v>36.967730000000003</v>
+      </c>
+      <c r="D45" s="4">
+        <v>30.621510000000001</v>
+      </c>
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
       <c r="G45" s="4"/>
@@ -1505,14 +2262,24 @@
       <c r="K45" s="4"/>
       <c r="L45" s="4"/>
       <c r="M45" s="4"/>
-      <c r="N45" s="12"/>
+      <c r="N45" s="12">
+        <v>12.061</v>
+      </c>
       <c r="O45" s="16"/>
     </row>
-    <row r="46" spans="1:15">
-      <c r="A46" s="22"/>
-      <c r="B46" s="23"/>
-      <c r="C46" s="4"/>
-      <c r="D46" s="4"/>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A46" s="22">
+        <v>43307</v>
+      </c>
+      <c r="B46" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C46" s="4">
+        <v>36.96434</v>
+      </c>
+      <c r="D46" s="4">
+        <v>30.727049999999998</v>
+      </c>
       <c r="E46" s="4"/>
       <c r="F46" s="4"/>
       <c r="G46" s="4"/>
@@ -1522,14 +2289,24 @@
       <c r="K46" s="4"/>
       <c r="L46" s="4"/>
       <c r="M46" s="4"/>
-      <c r="N46" s="12"/>
+      <c r="N46" s="12">
+        <v>2.7959999999999998</v>
+      </c>
       <c r="O46" s="16"/>
     </row>
-    <row r="47" spans="1:15">
-      <c r="A47" s="22"/>
-      <c r="B47" s="24"/>
-      <c r="C47" s="4"/>
-      <c r="D47" s="4"/>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A47" s="22">
+        <v>43307</v>
+      </c>
+      <c r="B47" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C47" s="4">
+        <v>36.96434</v>
+      </c>
+      <c r="D47" s="4">
+        <v>30.727049999999998</v>
+      </c>
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
       <c r="G47" s="4"/>
@@ -1539,14 +2316,24 @@
       <c r="K47" s="4"/>
       <c r="L47" s="4"/>
       <c r="M47" s="4"/>
-      <c r="N47" s="12"/>
+      <c r="N47" s="12">
+        <v>0.374</v>
+      </c>
       <c r="O47" s="16"/>
     </row>
-    <row r="48" spans="1:15">
-      <c r="A48" s="22"/>
-      <c r="B48" s="23"/>
-      <c r="C48" s="4"/>
-      <c r="D48" s="4"/>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A48" s="22">
+        <v>43307</v>
+      </c>
+      <c r="B48" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="C48" s="4">
+        <v>36.904789999999998</v>
+      </c>
+      <c r="D48" s="4">
+        <v>30.766439999999999</v>
+      </c>
       <c r="E48" s="4"/>
       <c r="F48" s="4"/>
       <c r="G48" s="4"/>
@@ -1556,14 +2343,24 @@
       <c r="K48" s="4"/>
       <c r="L48" s="4"/>
       <c r="M48" s="4"/>
-      <c r="N48" s="12"/>
+      <c r="N48" s="12">
+        <v>9.5540000000000003</v>
+      </c>
       <c r="O48" s="16"/>
     </row>
-    <row r="49" spans="1:15">
-      <c r="A49" s="22"/>
-      <c r="B49" s="23"/>
-      <c r="C49" s="4"/>
-      <c r="D49" s="4"/>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A49" s="22">
+        <v>43307</v>
+      </c>
+      <c r="B49" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C49" s="4">
+        <v>36.851439999999997</v>
+      </c>
+      <c r="D49" s="4">
+        <v>30.783259999999999</v>
+      </c>
       <c r="E49" s="4"/>
       <c r="F49" s="4"/>
       <c r="G49" s="4"/>
@@ -1576,11 +2373,19 @@
       <c r="N49" s="4"/>
       <c r="O49" s="16"/>
     </row>
-    <row r="50" spans="1:15">
-      <c r="A50" s="22"/>
-      <c r="B50" s="23"/>
-      <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A50" s="22">
+        <v>43321</v>
+      </c>
+      <c r="B50" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C50" s="2">
+        <v>37.086100000000002</v>
+      </c>
+      <c r="D50" s="2">
+        <v>30.584240000000001</v>
+      </c>
       <c r="E50" s="4"/>
       <c r="F50" s="4"/>
       <c r="G50" s="4"/>
@@ -1590,14 +2395,24 @@
       <c r="K50" s="4"/>
       <c r="L50" s="4"/>
       <c r="M50" s="4"/>
-      <c r="N50" s="12"/>
+      <c r="N50" s="12">
+        <v>11.506</v>
+      </c>
       <c r="O50" s="16"/>
     </row>
-    <row r="51" spans="1:15">
-      <c r="A51" s="22"/>
-      <c r="B51" s="23"/>
-      <c r="C51" s="4"/>
-      <c r="D51" s="4"/>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A51" s="22">
+        <v>43321</v>
+      </c>
+      <c r="B51" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="C51" s="4">
+        <v>36.967730000000003</v>
+      </c>
+      <c r="D51" s="4">
+        <v>30.621510000000001</v>
+      </c>
       <c r="E51" s="4"/>
       <c r="F51" s="4"/>
       <c r="G51" s="4"/>
@@ -1607,14 +2422,24 @@
       <c r="K51" s="4"/>
       <c r="L51" s="4"/>
       <c r="M51" s="4"/>
-      <c r="N51" s="12"/>
+      <c r="N51" s="12">
+        <v>10.563000000000001</v>
+      </c>
       <c r="O51" s="16"/>
     </row>
-    <row r="52" spans="1:15">
-      <c r="A52" s="22"/>
-      <c r="B52" s="23"/>
-      <c r="C52" s="4"/>
-      <c r="D52" s="4"/>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A52" s="22">
+        <v>43321</v>
+      </c>
+      <c r="B52" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C52" s="4">
+        <v>36.96434</v>
+      </c>
+      <c r="D52" s="4">
+        <v>30.727049999999998</v>
+      </c>
       <c r="E52" s="4"/>
       <c r="F52" s="4"/>
       <c r="G52" s="4"/>
@@ -1624,14 +2449,24 @@
       <c r="K52" s="4"/>
       <c r="L52" s="4"/>
       <c r="M52" s="4"/>
-      <c r="N52" s="12"/>
+      <c r="N52" s="12">
+        <v>3.0019999999999998</v>
+      </c>
       <c r="O52" s="16"/>
     </row>
-    <row r="53" spans="1:15">
-      <c r="A53" s="22"/>
-      <c r="B53" s="24"/>
-      <c r="C53" s="4"/>
-      <c r="D53" s="4"/>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A53" s="22">
+        <v>43321</v>
+      </c>
+      <c r="B53" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C53" s="4">
+        <v>36.96434</v>
+      </c>
+      <c r="D53" s="4">
+        <v>30.727049999999998</v>
+      </c>
       <c r="E53" s="4"/>
       <c r="F53" s="4"/>
       <c r="G53" s="4"/>
@@ -1641,14 +2476,24 @@
       <c r="K53" s="4"/>
       <c r="L53" s="4"/>
       <c r="M53" s="4"/>
-      <c r="N53" s="12"/>
+      <c r="N53" s="12">
+        <v>1.653</v>
+      </c>
       <c r="O53" s="16"/>
     </row>
-    <row r="54" spans="1:15">
-      <c r="A54" s="22"/>
-      <c r="B54" s="23"/>
-      <c r="C54" s="4"/>
-      <c r="D54" s="4"/>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A54" s="22">
+        <v>43321</v>
+      </c>
+      <c r="B54" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="C54" s="4">
+        <v>36.904789999999998</v>
+      </c>
+      <c r="D54" s="4">
+        <v>30.766439999999999</v>
+      </c>
       <c r="E54" s="4"/>
       <c r="F54" s="4"/>
       <c r="G54" s="4"/>
@@ -1658,14 +2503,24 @@
       <c r="K54" s="4"/>
       <c r="L54" s="4"/>
       <c r="M54" s="4"/>
-      <c r="N54" s="12"/>
+      <c r="N54" s="12">
+        <v>4.1040000000000001</v>
+      </c>
       <c r="O54" s="16"/>
     </row>
-    <row r="55" spans="1:15">
-      <c r="A55" s="22"/>
-      <c r="B55" s="23"/>
-      <c r="C55" s="4"/>
-      <c r="D55" s="4"/>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A55" s="22">
+        <v>43321</v>
+      </c>
+      <c r="B55" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C55" s="4">
+        <v>36.851439999999997</v>
+      </c>
+      <c r="D55" s="4">
+        <v>30.783259999999999</v>
+      </c>
       <c r="E55" s="4"/>
       <c r="F55" s="4"/>
       <c r="G55" s="4"/>
@@ -1678,11 +2533,19 @@
       <c r="N55" s="4"/>
       <c r="O55" s="16"/>
     </row>
-    <row r="56" spans="1:15">
-      <c r="A56" s="22"/>
-      <c r="B56" s="23"/>
-      <c r="C56" s="2"/>
-      <c r="D56" s="2"/>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A56" s="22">
+        <v>43341</v>
+      </c>
+      <c r="B56" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C56" s="2">
+        <v>37.086100000000002</v>
+      </c>
+      <c r="D56" s="2">
+        <v>30.584240000000001</v>
+      </c>
       <c r="E56" s="4"/>
       <c r="F56" s="4"/>
       <c r="G56" s="4"/>
@@ -1692,14 +2555,24 @@
       <c r="K56" s="4"/>
       <c r="L56" s="4"/>
       <c r="M56" s="4"/>
-      <c r="N56" s="12"/>
+      <c r="N56" s="12">
+        <v>13.031000000000001</v>
+      </c>
       <c r="O56" s="16"/>
     </row>
-    <row r="57" spans="1:15">
-      <c r="A57" s="22"/>
-      <c r="B57" s="23"/>
-      <c r="C57" s="4"/>
-      <c r="D57" s="4"/>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A57" s="22">
+        <v>43341</v>
+      </c>
+      <c r="B57" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="C57" s="4">
+        <v>36.967730000000003</v>
+      </c>
+      <c r="D57" s="4">
+        <v>30.621510000000001</v>
+      </c>
       <c r="E57" s="4"/>
       <c r="F57" s="4"/>
       <c r="G57" s="4"/>
@@ -1709,14 +2582,24 @@
       <c r="K57" s="4"/>
       <c r="L57" s="4"/>
       <c r="M57" s="4"/>
-      <c r="N57" s="12"/>
+      <c r="N57" s="12">
+        <v>12.468999999999999</v>
+      </c>
       <c r="O57" s="16"/>
     </row>
-    <row r="58" spans="1:15">
-      <c r="A58" s="22"/>
-      <c r="B58" s="23"/>
-      <c r="C58" s="4"/>
-      <c r="D58" s="4"/>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A58" s="22">
+        <v>43341</v>
+      </c>
+      <c r="B58" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C58" s="4">
+        <v>36.96434</v>
+      </c>
+      <c r="D58" s="4">
+        <v>30.727049999999998</v>
+      </c>
       <c r="E58" s="4"/>
       <c r="F58" s="4"/>
       <c r="G58" s="4"/>
@@ -1726,14 +2609,24 @@
       <c r="K58" s="4"/>
       <c r="L58" s="4"/>
       <c r="M58" s="4"/>
-      <c r="N58" s="12"/>
+      <c r="N58" s="12">
+        <v>3.0619999999999998</v>
+      </c>
       <c r="O58" s="16"/>
     </row>
-    <row r="59" spans="1:15">
-      <c r="A59" s="22"/>
-      <c r="B59" s="24"/>
-      <c r="C59" s="4"/>
-      <c r="D59" s="4"/>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A59" s="22">
+        <v>43341</v>
+      </c>
+      <c r="B59" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C59" s="4">
+        <v>36.96434</v>
+      </c>
+      <c r="D59" s="4">
+        <v>30.727049999999998</v>
+      </c>
       <c r="E59" s="4"/>
       <c r="F59" s="4"/>
       <c r="G59" s="4"/>
@@ -1743,14 +2636,24 @@
       <c r="K59" s="4"/>
       <c r="L59" s="4"/>
       <c r="M59" s="4"/>
-      <c r="N59" s="12"/>
+      <c r="N59" s="12">
+        <v>1.696</v>
+      </c>
       <c r="O59" s="16"/>
     </row>
-    <row r="60" spans="1:15">
-      <c r="A60" s="22"/>
-      <c r="B60" s="23"/>
-      <c r="C60" s="4"/>
-      <c r="D60" s="4"/>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A60" s="22">
+        <v>43341</v>
+      </c>
+      <c r="B60" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="C60" s="4">
+        <v>36.904789999999998</v>
+      </c>
+      <c r="D60" s="4">
+        <v>30.766439999999999</v>
+      </c>
       <c r="E60" s="4"/>
       <c r="F60" s="4"/>
       <c r="G60" s="4"/>
@@ -1760,14 +2663,24 @@
       <c r="K60" s="4"/>
       <c r="L60" s="4"/>
       <c r="M60" s="4"/>
-      <c r="N60" s="12"/>
+      <c r="N60" s="12">
+        <v>5.444</v>
+      </c>
       <c r="O60" s="16"/>
     </row>
-    <row r="61" spans="1:15">
-      <c r="A61" s="22"/>
-      <c r="B61" s="23"/>
-      <c r="C61" s="4"/>
-      <c r="D61" s="4"/>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A61" s="22">
+        <v>43341</v>
+      </c>
+      <c r="B61" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C61" s="4">
+        <v>36.851439999999997</v>
+      </c>
+      <c r="D61" s="4">
+        <v>30.783259999999999</v>
+      </c>
       <c r="E61" s="4"/>
       <c r="F61" s="4"/>
       <c r="G61" s="4"/>
@@ -1780,96 +2693,224 @@
       <c r="N61" s="4"/>
       <c r="O61" s="16"/>
     </row>
-    <row r="62" spans="1:15">
-      <c r="A62" s="25"/>
-      <c r="B62" s="23"/>
-      <c r="C62" s="2"/>
-      <c r="D62" s="2"/>
-      <c r="E62" s="4"/>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A62" s="25">
+        <v>43355</v>
+      </c>
+      <c r="B62" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C62" s="2">
+        <v>37.086100000000002</v>
+      </c>
+      <c r="D62" s="2">
+        <v>30.584240000000001</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="F62" s="4"/>
-      <c r="G62" s="4"/>
-      <c r="H62" s="4"/>
-      <c r="I62" s="4"/>
-      <c r="J62" s="4"/>
-      <c r="K62" s="4"/>
-      <c r="L62" s="4"/>
-      <c r="M62" s="4"/>
+      <c r="G62" s="4">
+        <v>3000</v>
+      </c>
+      <c r="H62" s="4">
+        <v>6000</v>
+      </c>
+      <c r="I62" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J62" s="4">
+        <v>6.83</v>
+      </c>
+      <c r="K62" s="4">
+        <v>1.4419999999999999</v>
+      </c>
+      <c r="L62" s="4">
+        <v>13000</v>
+      </c>
+      <c r="M62" s="4">
+        <v>9.4E-2</v>
+      </c>
       <c r="N62" s="4"/>
       <c r="O62" s="16"/>
     </row>
-    <row r="63" spans="1:15">
-      <c r="A63" s="25"/>
-      <c r="B63" s="23"/>
-      <c r="C63" s="4"/>
-      <c r="D63" s="4"/>
-      <c r="E63" s="4"/>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A63" s="25">
+        <v>43355</v>
+      </c>
+      <c r="B63" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="C63" s="4">
+        <v>36.967730000000003</v>
+      </c>
+      <c r="D63" s="4">
+        <v>30.621510000000001</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="F63" s="4"/>
-      <c r="G63" s="4"/>
-      <c r="H63" s="4"/>
-      <c r="I63" s="4"/>
-      <c r="J63" s="4"/>
-      <c r="K63" s="5"/>
-      <c r="L63" s="4"/>
-      <c r="M63" s="4"/>
+      <c r="G63" s="4">
+        <v>2000</v>
+      </c>
+      <c r="H63" s="4">
+        <v>200</v>
+      </c>
+      <c r="I63" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J63" s="4">
+        <v>6.84</v>
+      </c>
+      <c r="K63" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="L63" s="4">
+        <v>10000</v>
+      </c>
+      <c r="M63" s="4">
+        <v>0.13100000000000001</v>
+      </c>
       <c r="N63" s="4"/>
       <c r="O63" s="16"/>
     </row>
-    <row r="64" spans="1:15">
-      <c r="A64" s="15"/>
-      <c r="B64" s="2"/>
-      <c r="C64" s="4"/>
-      <c r="D64" s="4"/>
-      <c r="E64" s="4"/>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A64" s="15">
+        <v>43355</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C64" s="4">
+        <v>36.96434</v>
+      </c>
+      <c r="D64" s="4">
+        <v>30.727049999999998</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="F64" s="4"/>
-      <c r="G64" s="4"/>
-      <c r="H64" s="4"/>
-      <c r="I64" s="4"/>
-      <c r="J64" s="4"/>
-      <c r="K64" s="5"/>
-      <c r="L64" s="4"/>
-      <c r="M64" s="4"/>
+      <c r="G64" s="4">
+        <v>1000</v>
+      </c>
+      <c r="H64" s="4">
+        <v>8000</v>
+      </c>
+      <c r="I64" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J64" s="4">
+        <v>6.83</v>
+      </c>
+      <c r="K64" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="L64" s="4">
+        <v>100</v>
+      </c>
+      <c r="M64" s="4">
+        <v>7.0000000000000007E-2</v>
+      </c>
       <c r="N64" s="4"/>
       <c r="O64" s="16"/>
     </row>
-    <row r="65" spans="1:15">
-      <c r="A65" s="15"/>
-      <c r="B65" s="10"/>
-      <c r="C65" s="4"/>
-      <c r="D65" s="4"/>
-      <c r="E65" s="4"/>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A65" s="15">
+        <v>43355</v>
+      </c>
+      <c r="B65" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C65" s="4">
+        <v>36.96434</v>
+      </c>
+      <c r="D65" s="4">
+        <v>30.727049999999998</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="F65" s="4"/>
-      <c r="G65" s="4"/>
-      <c r="H65" s="4"/>
-      <c r="I65" s="4"/>
-      <c r="J65" s="4"/>
-      <c r="K65" s="5"/>
-      <c r="L65" s="4"/>
-      <c r="M65" s="4"/>
+      <c r="G65" s="4">
+        <v>4000</v>
+      </c>
+      <c r="H65" s="4">
+        <v>250</v>
+      </c>
+      <c r="I65" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J65" s="4">
+        <v>6.94</v>
+      </c>
+      <c r="K65" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="L65" s="4">
+        <v>6000</v>
+      </c>
+      <c r="M65" s="4">
+        <v>6.3E-2</v>
+      </c>
       <c r="N65" s="4"/>
       <c r="O65" s="16"/>
     </row>
-    <row r="66" spans="1:15">
-      <c r="A66" s="15"/>
-      <c r="B66" s="2"/>
-      <c r="C66" s="4"/>
-      <c r="D66" s="4"/>
-      <c r="E66" s="4"/>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A66" s="15">
+        <v>43355</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C66" s="4">
+        <v>36.904789999999998</v>
+      </c>
+      <c r="D66" s="4">
+        <v>30.766439999999999</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="F66" s="4"/>
-      <c r="G66" s="4"/>
-      <c r="H66" s="4"/>
-      <c r="I66" s="4"/>
-      <c r="J66" s="4"/>
-      <c r="K66" s="4"/>
-      <c r="L66" s="4"/>
-      <c r="M66" s="4"/>
+      <c r="G66" s="4">
+        <v>2000</v>
+      </c>
+      <c r="H66" s="4">
+        <v>300</v>
+      </c>
+      <c r="I66" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J66" s="4">
+        <v>6.78</v>
+      </c>
+      <c r="K66" s="4">
+        <v>1.4790000000000001</v>
+      </c>
+      <c r="L66" s="4">
+        <v>7000</v>
+      </c>
+      <c r="M66" s="4">
+        <v>0.108</v>
+      </c>
       <c r="N66" s="4"/>
       <c r="O66" s="16"/>
     </row>
-    <row r="67" spans="1:15">
-      <c r="A67" s="15"/>
-      <c r="B67" s="2"/>
-      <c r="C67" s="4"/>
-      <c r="D67" s="4"/>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A67" s="15">
+        <v>43355</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C67" s="4">
+        <v>36.851439999999997</v>
+      </c>
+      <c r="D67" s="4">
+        <v>30.783259999999999</v>
+      </c>
       <c r="E67" s="4"/>
       <c r="F67" s="4"/>
       <c r="G67" s="4"/>
@@ -1882,96 +2923,224 @@
       <c r="N67" s="4"/>
       <c r="O67" s="16"/>
     </row>
-    <row r="68" spans="1:15">
-      <c r="A68" s="15"/>
-      <c r="B68" s="2"/>
-      <c r="C68" s="2"/>
-      <c r="D68" s="2"/>
-      <c r="E68" s="4"/>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A68" s="15">
+        <v>43473</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C68" s="2">
+        <v>37.086100000000002</v>
+      </c>
+      <c r="D68" s="2">
+        <v>30.584240000000001</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="F68" s="4"/>
-      <c r="G68" s="4"/>
-      <c r="H68" s="4"/>
-      <c r="I68" s="4"/>
-      <c r="J68" s="4"/>
-      <c r="K68" s="4"/>
-      <c r="L68" s="4"/>
-      <c r="M68" s="4"/>
+      <c r="G68" s="4">
+        <v>300</v>
+      </c>
+      <c r="H68" s="4">
+        <v>200</v>
+      </c>
+      <c r="I68" s="4">
+        <v>6</v>
+      </c>
+      <c r="J68" s="4">
+        <v>7.77</v>
+      </c>
+      <c r="K68" s="4">
+        <v>2.823</v>
+      </c>
+      <c r="L68" s="4">
+        <v>3600</v>
+      </c>
+      <c r="M68" s="4">
+        <v>0.311</v>
+      </c>
       <c r="N68" s="4"/>
       <c r="O68" s="16"/>
     </row>
-    <row r="69" spans="1:15">
-      <c r="A69" s="15"/>
-      <c r="B69" s="2"/>
-      <c r="C69" s="4"/>
-      <c r="D69" s="4"/>
-      <c r="E69" s="4"/>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A69" s="15">
+        <v>43473</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C69" s="4">
+        <v>36.967730000000003</v>
+      </c>
+      <c r="D69" s="4">
+        <v>30.621510000000001</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="F69" s="4"/>
-      <c r="G69" s="4"/>
-      <c r="H69" s="4"/>
-      <c r="I69" s="4"/>
-      <c r="J69" s="4"/>
-      <c r="K69" s="4"/>
-      <c r="L69" s="4"/>
-      <c r="M69" s="4"/>
+      <c r="G69" s="4">
+        <v>200</v>
+      </c>
+      <c r="H69" s="4">
+        <v>80</v>
+      </c>
+      <c r="I69" s="4">
+        <v>6.7</v>
+      </c>
+      <c r="J69" s="4">
+        <v>7.73</v>
+      </c>
+      <c r="K69" s="4">
+        <v>2.5960000000000001</v>
+      </c>
+      <c r="L69" s="4">
+        <v>3700</v>
+      </c>
+      <c r="M69" s="4">
+        <v>0.311</v>
+      </c>
       <c r="N69" s="4"/>
       <c r="O69" s="16"/>
     </row>
-    <row r="70" spans="1:15">
-      <c r="A70" s="15"/>
-      <c r="B70" s="2"/>
-      <c r="C70" s="4"/>
-      <c r="D70" s="4"/>
-      <c r="E70" s="4"/>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A70" s="15">
+        <v>43473</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C70" s="4">
+        <v>36.96434</v>
+      </c>
+      <c r="D70" s="4">
+        <v>30.727049999999998</v>
+      </c>
+      <c r="E70" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="F70" s="4"/>
-      <c r="G70" s="4"/>
-      <c r="H70" s="4"/>
-      <c r="I70" s="4"/>
-      <c r="J70" s="4"/>
-      <c r="K70" s="4"/>
-      <c r="L70" s="4"/>
-      <c r="M70" s="4"/>
+      <c r="G70" s="4">
+        <v>230</v>
+      </c>
+      <c r="H70" s="4">
+        <v>40</v>
+      </c>
+      <c r="I70" s="4">
+        <v>6.3</v>
+      </c>
+      <c r="J70" s="4">
+        <v>7.73</v>
+      </c>
+      <c r="K70" s="4">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="L70" s="4">
+        <v>5500</v>
+      </c>
+      <c r="M70" s="4">
+        <v>0.219</v>
+      </c>
       <c r="N70" s="4"/>
       <c r="O70" s="16"/>
     </row>
-    <row r="71" spans="1:15">
-      <c r="A71" s="15"/>
-      <c r="B71" s="10"/>
-      <c r="C71" s="4"/>
-      <c r="D71" s="4"/>
-      <c r="E71" s="4"/>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A71" s="15">
+        <v>43473</v>
+      </c>
+      <c r="B71" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C71" s="4">
+        <v>36.96434</v>
+      </c>
+      <c r="D71" s="4">
+        <v>30.727049999999998</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="F71" s="4"/>
-      <c r="G71" s="4"/>
-      <c r="H71" s="4"/>
-      <c r="I71" s="4"/>
-      <c r="J71" s="4"/>
-      <c r="K71" s="4"/>
-      <c r="L71" s="4"/>
-      <c r="M71" s="4"/>
+      <c r="G71" s="4">
+        <v>120</v>
+      </c>
+      <c r="H71" s="4">
+        <v>70</v>
+      </c>
+      <c r="I71" s="4">
+        <v>9.6</v>
+      </c>
+      <c r="J71" s="4">
+        <v>7.47</v>
+      </c>
+      <c r="K71" s="4">
+        <v>5.7469999999999999</v>
+      </c>
+      <c r="L71" s="4">
+        <v>4100</v>
+      </c>
+      <c r="M71" s="4">
+        <v>0.30299999999999999</v>
+      </c>
       <c r="N71" s="4"/>
       <c r="O71" s="16"/>
     </row>
-    <row r="72" spans="1:15">
-      <c r="A72" s="15"/>
-      <c r="B72" s="2"/>
-      <c r="C72" s="4"/>
-      <c r="D72" s="4"/>
-      <c r="E72" s="4"/>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A72" s="15">
+        <v>43473</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C72" s="4">
+        <v>36.904789999999998</v>
+      </c>
+      <c r="D72" s="4">
+        <v>30.766439999999999</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="F72" s="4"/>
-      <c r="G72" s="4"/>
-      <c r="H72" s="4"/>
-      <c r="I72" s="4"/>
-      <c r="J72" s="4"/>
-      <c r="K72" s="4"/>
-      <c r="L72" s="4"/>
-      <c r="M72" s="4"/>
+      <c r="G72" s="4">
+        <v>110</v>
+      </c>
+      <c r="H72" s="4">
+        <v>600</v>
+      </c>
+      <c r="I72" s="4">
+        <v>6.5</v>
+      </c>
+      <c r="J72" s="4">
+        <v>7.3</v>
+      </c>
+      <c r="K72" s="4">
+        <v>2.585</v>
+      </c>
+      <c r="L72" s="4">
+        <v>3100</v>
+      </c>
+      <c r="M72" s="4">
+        <v>0.216</v>
+      </c>
       <c r="N72" s="4"/>
       <c r="O72" s="16"/>
     </row>
-    <row r="73" spans="1:15" ht="15" thickBot="1">
-      <c r="A73" s="18"/>
-      <c r="B73" s="19"/>
-      <c r="C73" s="20"/>
-      <c r="D73" s="20"/>
+    <row r="73" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A73" s="18">
+        <v>43473</v>
+      </c>
+      <c r="B73" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C73" s="20">
+        <v>36.851439999999997</v>
+      </c>
+      <c r="D73" s="20">
+        <v>30.783259999999999</v>
+      </c>
       <c r="E73" s="20"/>
       <c r="F73" s="20"/>
       <c r="G73" s="20"/>
@@ -1984,7 +3153,7 @@
       <c r="N73" s="20"/>
       <c r="O73" s="21"/>
     </row>
-    <row r="74" spans="1:15">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A74" s="6"/>
     </row>
   </sheetData>
